--- a/Output/Nuevo/INE_nacional.xlsx
+++ b/Output/Nuevo/INE_nacional.xlsx
@@ -1,21 +1,156 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\OneDrive - Instituto Nacional de Estadisticas\GitHub\OBSERVATORIO SINDICAL\COMPENDIOS_DT\Output\Nuevo\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="18" documentId="11_613F6E9741CDEC8966A65452F37BD2723AC36764" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C6FFD3C9-590A-48FD-97CC-F3C63DCD6006}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="15" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INE_nacional" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+  <si>
+    <t>Fuerza.de.trabajo.(Total)</t>
+  </si>
+  <si>
+    <t>Ocupados.(Total)</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>Asalariados.(Total)./4</t>
+  </si>
+  <si>
+    <t>Personal.de.servicio.doméstico.(Total)./6</t>
+  </si>
+  <si>
+    <t>Asalariados.(Sector.privado)</t>
+  </si>
+  <si>
+    <t>Dependientes</t>
+  </si>
+  <si>
+    <t>1990</t>
+  </si>
+  <si>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>1992</t>
+  </si>
+  <si>
+    <t>1993</t>
+  </si>
+  <si>
+    <t>1994</t>
+  </si>
+  <si>
+    <t>1995</t>
+  </si>
+  <si>
+    <t>1996</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>1998</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,11 +198,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -109,7 +252,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -141,9 +284,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,6 +336,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -350,83 +529,70 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S22" sqref="S22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="7" width="8.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Fuerza.de.trabajo.(Total)</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Ocupados.(Total)</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Año</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Asalariados.(Total)./4</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Personal.de.servicio.doméstico.(Total)./6</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Asalariados.(Sector.privado)</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Dependientes</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>4888.59</v>
       </c>
       <c r="B2">
         <v>4525.53</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1990</t>
-        </is>
+      <c r="C2" t="s">
+        <v>7</v>
       </c>
       <c r="D2">
         <v>2833.59</v>
       </c>
       <c r="E2">
-        <v>279.09</v>
+        <v>279.08999999999997</v>
       </c>
       <c r="G2">
         <v>3112.68</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>4983.89</v>
+        <v>4983.8900000000003</v>
       </c>
       <c r="B3">
         <v>4630.67</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1991</t>
-        </is>
+      <c r="C3" t="s">
+        <v>8</v>
       </c>
       <c r="D3">
         <v>2923.9</v>
@@ -438,39 +604,35 @@
         <v>3199.03</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>5199.8</v>
       </c>
       <c r="B4">
         <v>4877.43</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1992</t>
-        </is>
+      <c r="C4" t="s">
+        <v>9</v>
       </c>
       <c r="D4">
         <v>3085.98</v>
       </c>
       <c r="E4">
-        <v>281.35</v>
+        <v>281.35000000000002</v>
       </c>
       <c r="G4">
         <v>3367.33</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>5458.99</v>
       </c>
       <c r="B5">
         <v>5109.29</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1993</t>
-        </is>
+      <c r="C5" t="s">
+        <v>10</v>
       </c>
       <c r="D5">
         <v>3281.44</v>
@@ -482,17 +644,15 @@
         <v>3554.24</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5553.83</v>
       </c>
       <c r="B6">
         <v>5122.76</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1994</t>
-        </is>
+      <c r="C6" t="s">
+        <v>11</v>
       </c>
       <c r="D6">
         <v>3242.92</v>
@@ -504,17 +664,15 @@
         <v>3519.06</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5538.24</v>
       </c>
       <c r="B7">
         <v>5174.41</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1995</t>
-        </is>
+      <c r="C7" t="s">
+        <v>12</v>
       </c>
       <c r="D7">
         <v>3319.12</v>
@@ -526,17 +684,15 @@
         <v>3592.89</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>5600.67</v>
       </c>
       <c r="B8">
         <v>5298.68</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1996</t>
-        </is>
+      <c r="C8" t="s">
+        <v>13</v>
       </c>
       <c r="D8">
         <v>3447.76</v>
@@ -548,17 +704,15 @@
         <v>3713.08</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>5683.82</v>
       </c>
       <c r="B9">
         <v>5380.19</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1997</t>
-        </is>
+      <c r="C9" t="s">
+        <v>14</v>
       </c>
       <c r="D9">
         <v>3516.26</v>
@@ -570,543 +724,497 @@
         <v>3787.62</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>5898.5931514246</v>
+        <v>5898.5931514246004</v>
       </c>
       <c r="B10">
-        <v>5467.445154069737</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1998</t>
-        </is>
+        <v>5467.4451540697373</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
       </c>
       <c r="D10">
         <v>3508.73556788616</v>
       </c>
       <c r="E10">
-        <v>272.7287504112915</v>
+        <v>272.72875041129151</v>
       </c>
       <c r="G10">
         <v>3781.464318297451</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>6043.833344114582</v>
+        <v>6043.8333441145824</v>
       </c>
       <c r="B11">
-        <v>5482.800530054808</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1999</t>
-        </is>
+        <v>5482.8005300548084</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
       </c>
       <c r="D11">
-        <v>3507.370878788599</v>
+        <v>3507.3708787885989</v>
       </c>
       <c r="E11">
         <v>283.1447576038268</v>
       </c>
       <c r="G11">
-        <v>3790.515636392426</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>3790.5156363924261</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>6038.397738690405</v>
+        <v>6038.3977386904053</v>
       </c>
       <c r="B12">
-        <v>5501.456596826549</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
+        <v>5501.4565968265488</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
       </c>
       <c r="D12">
-        <v>3532.388072148411</v>
+        <v>3532.3880721484111</v>
       </c>
       <c r="E12">
-        <v>282.1034880961948</v>
+        <v>282.10348809619478</v>
       </c>
       <c r="G12">
-        <v>3814.491560244605</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>3814.4915602446049</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>6175.366719122763</v>
+        <v>6175.3667191227632</v>
       </c>
       <c r="B13">
-        <v>5641.643622637939</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>2001</t>
-        </is>
+        <v>5641.6436226379392</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
       </c>
       <c r="D13">
-        <v>3607.804113111934</v>
+        <v>3607.8041131119339</v>
       </c>
       <c r="E13">
-        <v>256.9182052245595</v>
+        <v>256.91820522455947</v>
       </c>
       <c r="G13">
-        <v>3864.722318336493</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>3864.7223183364931</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>6281.705813588329</v>
       </c>
       <c r="B14">
-        <v>5735.423586777594</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>2002</t>
-        </is>
+        <v>5735.4235867775942</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
       </c>
       <c r="D14">
-        <v>3655.104263164572</v>
+        <v>3655.1042631645719</v>
       </c>
       <c r="E14">
-        <v>264.2495190235422</v>
+        <v>264.24951902354218</v>
       </c>
       <c r="G14">
         <v>3919.353782188115</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>6484.522265208916</v>
       </c>
       <c r="B15">
-        <v>5936.407357699459</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>2003</t>
-        </is>
+        <v>5936.4073576994588</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
       </c>
       <c r="D15">
-        <v>3753.809204211306</v>
+        <v>3753.8092042113062</v>
       </c>
       <c r="E15">
-        <v>284.5261499859705</v>
+        <v>284.52614998597051</v>
       </c>
       <c r="G15">
         <v>4038.335354197277</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>6789.347114371501</v>
+        <v>6789.3471143715014</v>
       </c>
       <c r="B16">
-        <v>6186.681304844792</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>2004</t>
-        </is>
+        <v>6186.6813048447921</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
       </c>
       <c r="D16">
         <v>3909.454377486677</v>
       </c>
       <c r="E16">
-        <v>288.5929744803365</v>
+        <v>288.59297448033652</v>
       </c>
       <c r="G16">
-        <v>4198.047351967013</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>4198.0473519670131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>6814.727187477261</v>
+        <v>6814.7271874772614</v>
       </c>
       <c r="B17">
-        <v>6273.618086459103</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>2005</t>
-        </is>
+        <v>6273.6180864591033</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
       </c>
       <c r="D17">
-        <v>4095.71098371449</v>
+        <v>4095.7109837144899</v>
       </c>
       <c r="E17">
-        <v>288.5934784009472</v>
+        <v>288.59347840094722</v>
       </c>
       <c r="G17">
-        <v>4384.304462115438</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>4384.3044621154377</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>6820.919</v>
+        <v>6820.9189999999999</v>
       </c>
       <c r="B18">
         <v>6410.982</v>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>2006</t>
-        </is>
+      <c r="C18" t="s">
+        <v>23</v>
       </c>
       <c r="D18">
-        <v>4271.464</v>
+        <v>4271.4639999999999</v>
       </c>
       <c r="E18">
-        <v>285.295</v>
+        <v>285.29500000000002</v>
       </c>
       <c r="G18">
         <v>4556.759</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>7078.07</v>
       </c>
       <c r="B19">
         <v>6567.241</v>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
+      <c r="C19" t="s">
+        <v>24</v>
       </c>
       <c r="D19">
-        <v>4461.744</v>
+        <v>4461.7439999999997</v>
       </c>
       <c r="E19">
-        <v>275.249</v>
+        <v>275.24900000000002</v>
       </c>
       <c r="G19">
-        <v>4736.993</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>4736.9930000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>7285.088</v>
+        <v>7285.0879999999997</v>
       </c>
       <c r="B20">
-        <v>6740.408</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
+        <v>6740.4080000000004</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
       </c>
       <c r="D20">
         <v>4632.24</v>
       </c>
       <c r="E20">
-        <v>271.691</v>
+        <v>271.69099999999997</v>
       </c>
       <c r="G20">
-        <v>4903.931</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>4903.9309999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>7343.778</v>
+        <v>7343.7780000000002</v>
       </c>
       <c r="B21">
         <v>6710.99</v>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
+      <c r="C21" t="s">
+        <v>26</v>
       </c>
       <c r="D21">
-        <v>4530.264</v>
+        <v>4530.2640000000001</v>
       </c>
       <c r="E21">
-        <v>275.573</v>
+        <v>275.57299999999998</v>
       </c>
       <c r="G21">
-        <v>4805.837</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>4805.8370000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>8160.715885142169</v>
+        <v>8160.7158851421691</v>
       </c>
       <c r="B22">
-        <v>7572.317751550401</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
+        <v>7572.3177515504012</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
       </c>
       <c r="D22">
         <v>5294.65773103016</v>
       </c>
       <c r="E22">
-        <v>342.196238938863</v>
+        <v>342.19623893886302</v>
       </c>
       <c r="F22">
-        <v>4524.140640657314</v>
+        <v>4524.1406406573142</v>
       </c>
       <c r="G22">
-        <v>5636.853969969023</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>5636.8539699690227</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>8356.354870340132</v>
       </c>
       <c r="B23">
         <v>7786.90190352638</v>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
+      <c r="C23" t="s">
+        <v>28</v>
       </c>
       <c r="D23">
         <v>5545.8441958443</v>
       </c>
       <c r="E23">
-        <v>376.213201582069</v>
+        <v>376.21320158206902</v>
       </c>
       <c r="F23">
-        <v>4706.064549292273</v>
+        <v>4706.0645492922731</v>
       </c>
       <c r="G23">
-        <v>5922.057397426369</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>5922.0573974263689</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>8480.115052081928</v>
+        <v>8480.1150520819283</v>
       </c>
       <c r="B24">
-        <v>7952.257088144648</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
+        <v>7952.2570881446482</v>
+      </c>
+      <c r="C24" t="s">
+        <v>29</v>
       </c>
       <c r="D24">
-        <v>5717.77559471996</v>
+        <v>5717.7755947199603</v>
       </c>
       <c r="E24">
-        <v>342.217826646793</v>
+        <v>342.21782664679301</v>
       </c>
       <c r="F24">
-        <v>4867.035174485571</v>
+        <v>4867.0351744855707</v>
       </c>
       <c r="G24">
         <v>6059.993421366753</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>8649.478733347261</v>
+        <v>8649.4787333472614</v>
       </c>
       <c r="B25">
-        <v>8149.389056275679</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
+        <v>8149.3890562756787</v>
+      </c>
+      <c r="C25" t="s">
+        <v>30</v>
       </c>
       <c r="D25">
         <v>5838.96775441926</v>
       </c>
       <c r="E25">
-        <v>325.59921709872</v>
+        <v>325.59921709871998</v>
       </c>
       <c r="F25">
-        <v>4945.015068338343</v>
+        <v>4945.0150683383426</v>
       </c>
       <c r="G25">
-        <v>6164.56697151798</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>6164.5669715179802</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>8795.429279167222</v>
+        <v>8795.4292791672215</v>
       </c>
       <c r="B26">
-        <v>8249.620399593319</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
+        <v>8249.6203995933192</v>
+      </c>
+      <c r="C26" t="s">
+        <v>31</v>
       </c>
       <c r="D26">
-        <v>5901.36983056701</v>
+        <v>5901.3698305670096</v>
       </c>
       <c r="E26">
-        <v>321.330723257771</v>
+        <v>321.33072325777101</v>
       </c>
       <c r="F26">
-        <v>4961.618620345244</v>
+        <v>4961.6186203452444</v>
       </c>
       <c r="G26">
-        <v>6222.70055382478</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>6222.7005538247804</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>8954.113876451487</v>
+        <v>8954.1138764514872</v>
       </c>
       <c r="B27">
-        <v>8428.469854872856</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+        <v>8428.4698548728556</v>
+      </c>
+      <c r="C27" t="s">
+        <v>32</v>
       </c>
       <c r="D27">
-        <v>6010.68537899035</v>
+        <v>6010.6853789903498</v>
       </c>
       <c r="E27">
-        <v>329.561385241015</v>
+        <v>329.56138524101499</v>
       </c>
       <c r="F27">
-        <v>5088.771246344547</v>
+        <v>5088.7712463445469</v>
       </c>
       <c r="G27">
         <v>6340.246764231365</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>9062.630724252847</v>
+        <v>9062.6307242528474</v>
       </c>
       <c r="B28">
-        <v>8500.710215149504</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+        <v>8500.7102151495037</v>
+      </c>
+      <c r="C28" t="s">
+        <v>33</v>
       </c>
       <c r="D28">
-        <v>5979.13497448398</v>
+        <v>5979.1349744839799</v>
       </c>
       <c r="E28">
-        <v>341.064180324624</v>
+        <v>341.06418032462398</v>
       </c>
       <c r="F28">
-        <v>5064.929696525133</v>
+        <v>5064.9296965251333</v>
       </c>
       <c r="G28">
-        <v>6320.199154808604</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>6320.1991548086044</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>9379.522639247585</v>
+        <v>9379.5226392475852</v>
       </c>
       <c r="B29">
-        <v>8768.666856716694</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+        <v>8768.6668567166944</v>
+      </c>
+      <c r="C29" t="s">
+        <v>34</v>
       </c>
       <c r="D29">
-        <v>6148.17927745918</v>
+        <v>6148.1792774591804</v>
       </c>
       <c r="E29">
-        <v>329.739673479903</v>
+        <v>329.73967347990299</v>
       </c>
       <c r="F29">
-        <v>5124.193097317707</v>
+        <v>5124.1930973177068</v>
       </c>
       <c r="G29">
-        <v>6477.918950939084</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>6477.9189509390844</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>9600.33271603016</v>
+        <v>9600.3327160301596</v>
       </c>
       <c r="B30">
-        <v>8914.248460323794</v>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+        <v>8914.2484603237936</v>
+      </c>
+      <c r="C30" t="s">
+        <v>35</v>
       </c>
       <c r="D30">
-        <v>6280.89223953553</v>
+        <v>6280.8922395355303</v>
       </c>
       <c r="E30">
-        <v>321.346706502295</v>
+        <v>321.34670650229498</v>
       </c>
       <c r="F30">
-        <v>5217.364110195649</v>
+        <v>5217.3641101956491</v>
       </c>
       <c r="G30">
-        <v>6602.238946037825</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>6602.2389460378254</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>9777.751505887172</v>
+        <v>9777.7515058871722</v>
       </c>
       <c r="B31">
-        <v>9087.132384046394</v>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+        <v>9087.1323840463938</v>
+      </c>
+      <c r="C31" t="s">
+        <v>36</v>
       </c>
       <c r="D31">
         <v>6451.45796048588</v>
       </c>
       <c r="E31">
-        <v>310.937867735058</v>
+        <v>310.93786773505798</v>
       </c>
       <c r="F31">
-        <v>5334.808940899126</v>
+        <v>5334.8089408991264</v>
       </c>
       <c r="G31">
-        <v>6762.395828220938</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>6762.3958282209378</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>8671.570473072707</v>
+        <v>8871.0760173646377</v>
       </c>
       <c r="B32">
-        <v>7667.659398293853</v>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+        <v>7916.7236210867441</v>
+      </c>
+      <c r="C32" t="s">
+        <v>37</v>
       </c>
       <c r="D32">
-        <v>5709.98428871392</v>
+        <v>5833.6849867414903</v>
       </c>
       <c r="E32">
-        <v>169.327025029987</v>
+        <v>188.43238266716699</v>
       </c>
       <c r="F32">
-        <v>4580.509891272714</v>
+        <v>4703.6889141451184</v>
       </c>
       <c r="G32">
-        <v>5879.311313743907</v>
+        <v>6022.1173694086574</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Nuevo/INE_nacional.xlsx
+++ b/Output/Nuevo/INE_nacional.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\OneDrive - Instituto Nacional de Estadisticas\GitHub\OBSERVATORIO SINDICAL\COMPENDIOS_DT\Output\Nuevo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://inechile-my.sharepoint.com/personal/nicolas_ratto_ine_cl/Documents/GitHub/OBSERVATORIO SINDICAL/COMPENDIOS_DT/Output/Nuevo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="11_613F6E9741CDEC8966A65452F37BD2723AC36764" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C6FFD3C9-590A-48FD-97CC-F3C63DCD6006}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="11_98ACAD8041CDEC8966A65452F37BD2726A4E846E" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{DEAF7459-5067-4619-888A-03EB4E3A9B95}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INE_nacional" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -532,14 +533,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="5" max="7" width="8.7265625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -1196,25 +1194,25 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>8871.0760173646377</v>
+        <v>8946.4800561463289</v>
       </c>
       <c r="B32">
-        <v>7916.7236210867441</v>
+        <v>8026.2166007514534</v>
       </c>
       <c r="C32" t="s">
         <v>37</v>
       </c>
       <c r="D32">
-        <v>5833.6849867414903</v>
+        <v>5927.2762600400101</v>
       </c>
       <c r="E32">
-        <v>188.43238266716699</v>
+        <v>194.91443161922899</v>
       </c>
       <c r="F32">
-        <v>4703.6889141451184</v>
+        <v>4792.0708725057211</v>
       </c>
       <c r="G32">
-        <v>6022.1173694086574</v>
+        <v>6122.1906916592388</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Nuevo/INE_nacional.xlsx
+++ b/Output/Nuevo/INE_nacional.xlsx
@@ -1,157 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://inechile-my.sharepoint.com/personal/nicolas_ratto_ine_cl/Documents/GitHub/OBSERVATORIO SINDICAL/COMPENDIOS_DT/Output/Nuevo/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="11_98ACAD8041CDEC8966A65452F37BD2726A4E846E" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{DEAF7459-5067-4619-888A-03EB4E3A9B95}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="INE_nacional" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
-  <si>
-    <t>Fuerza.de.trabajo.(Total)</t>
-  </si>
-  <si>
-    <t>Ocupados.(Total)</t>
-  </si>
-  <si>
-    <t>Año</t>
-  </si>
-  <si>
-    <t>Asalariados.(Total)./4</t>
-  </si>
-  <si>
-    <t>Personal.de.servicio.doméstico.(Total)./6</t>
-  </si>
-  <si>
-    <t>Asalariados.(Sector.privado)</t>
-  </si>
-  <si>
-    <t>Dependientes</t>
-  </si>
-  <si>
-    <t>1990</t>
-  </si>
-  <si>
-    <t>1991</t>
-  </si>
-  <si>
-    <t>1992</t>
-  </si>
-  <si>
-    <t>1993</t>
-  </si>
-  <si>
-    <t>1994</t>
-  </si>
-  <si>
-    <t>1995</t>
-  </si>
-  <si>
-    <t>1996</t>
-  </si>
-  <si>
-    <t>1997</t>
-  </si>
-  <si>
-    <t>1998</t>
-  </si>
-  <si>
-    <t>1999</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,19 +63,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -253,7 +109,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -285,27 +141,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -337,24 +175,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -530,67 +350,83 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Fuerza.de.trabajo.(Total)</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Ocupados.(Total)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Año</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Asalariados.(Total)./4</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Personal.de.servicio.doméstico.(Total)./6</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Asalariados.(Sector.privado)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Dependientes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2">
         <v>4888.59</v>
       </c>
       <c r="B2">
         <v>4525.53</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
       </c>
       <c r="D2">
         <v>2833.59</v>
       </c>
       <c r="E2">
-        <v>279.08999999999997</v>
+        <v>279.09</v>
       </c>
       <c r="G2">
         <v>3112.68</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3">
       <c r="A3">
-        <v>4983.8900000000003</v>
+        <v>4983.89</v>
       </c>
       <c r="B3">
         <v>4630.67</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
       </c>
       <c r="D3">
         <v>2923.9</v>
@@ -602,35 +438,39 @@
         <v>3199.03</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4">
       <c r="A4">
         <v>5199.8</v>
       </c>
       <c r="B4">
         <v>4877.43</v>
       </c>
-      <c r="C4" t="s">
-        <v>9</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
       </c>
       <c r="D4">
         <v>3085.98</v>
       </c>
       <c r="E4">
-        <v>281.35000000000002</v>
+        <v>281.35</v>
       </c>
       <c r="G4">
         <v>3367.33</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5">
       <c r="A5">
         <v>5458.99</v>
       </c>
       <c r="B5">
         <v>5109.29</v>
       </c>
-      <c r="C5" t="s">
-        <v>10</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1993</t>
+        </is>
       </c>
       <c r="D5">
         <v>3281.44</v>
@@ -642,15 +482,17 @@
         <v>3554.24</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6">
       <c r="A6">
         <v>5553.83</v>
       </c>
       <c r="B6">
         <v>5122.76</v>
       </c>
-      <c r="C6" t="s">
-        <v>11</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
       </c>
       <c r="D6">
         <v>3242.92</v>
@@ -662,15 +504,17 @@
         <v>3519.06</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7">
       <c r="A7">
         <v>5538.24</v>
       </c>
       <c r="B7">
         <v>5174.41</v>
       </c>
-      <c r="C7" t="s">
-        <v>12</v>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
       </c>
       <c r="D7">
         <v>3319.12</v>
@@ -682,15 +526,17 @@
         <v>3592.89</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8">
       <c r="A8">
         <v>5600.67</v>
       </c>
       <c r="B8">
         <v>5298.68</v>
       </c>
-      <c r="C8" t="s">
-        <v>13</v>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1996</t>
+        </is>
       </c>
       <c r="D8">
         <v>3447.76</v>
@@ -702,15 +548,17 @@
         <v>3713.08</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9">
       <c r="A9">
         <v>5683.82</v>
       </c>
       <c r="B9">
         <v>5380.19</v>
       </c>
-      <c r="C9" t="s">
-        <v>14</v>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1997</t>
+        </is>
       </c>
       <c r="D9">
         <v>3516.26</v>
@@ -722,497 +570,543 @@
         <v>3787.62</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10">
       <c r="A10">
-        <v>5898.5931514246004</v>
+        <v>5898.5931514246</v>
       </c>
       <c r="B10">
-        <v>5467.4451540697373</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
+        <v>5467.445154069737</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1998</t>
+        </is>
       </c>
       <c r="D10">
         <v>3508.73556788616</v>
       </c>
       <c r="E10">
-        <v>272.72875041129151</v>
+        <v>272.7287504112915</v>
       </c>
       <c r="G10">
         <v>3781.464318297451</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11">
       <c r="A11">
-        <v>6043.8333441145824</v>
+        <v>6043.833344114582</v>
       </c>
       <c r="B11">
-        <v>5482.8005300548084</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
+        <v>5482.800530054808</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1999</t>
+        </is>
       </c>
       <c r="D11">
-        <v>3507.3708787885989</v>
+        <v>3507.370878788599</v>
       </c>
       <c r="E11">
         <v>283.1447576038268</v>
       </c>
       <c r="G11">
-        <v>3790.5156363924261</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+        <v>3790.515636392426</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12">
-        <v>6038.3977386904053</v>
+        <v>6038.397738690405</v>
       </c>
       <c r="B12">
-        <v>5501.4565968265488</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
+        <v>5501.456596826549</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
       </c>
       <c r="D12">
-        <v>3532.3880721484111</v>
+        <v>3532.388072148411</v>
       </c>
       <c r="E12">
-        <v>282.10348809619478</v>
+        <v>282.1034880961948</v>
       </c>
       <c r="G12">
-        <v>3814.4915602446049</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+        <v>3814.491560244605</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13">
-        <v>6175.3667191227632</v>
+        <v>6175.366719122763</v>
       </c>
       <c r="B13">
-        <v>5641.6436226379392</v>
-      </c>
-      <c r="C13" t="s">
-        <v>18</v>
+        <v>5641.643622637939</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
       </c>
       <c r="D13">
-        <v>3607.8041131119339</v>
+        <v>3607.804113111934</v>
       </c>
       <c r="E13">
-        <v>256.91820522455947</v>
+        <v>256.9182052245595</v>
       </c>
       <c r="G13">
-        <v>3864.7223183364931</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+        <v>3864.722318336493</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14">
         <v>6281.705813588329</v>
       </c>
       <c r="B14">
-        <v>5735.4235867775942</v>
-      </c>
-      <c r="C14" t="s">
-        <v>19</v>
+        <v>5735.423586777594</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
       </c>
       <c r="D14">
-        <v>3655.1042631645719</v>
+        <v>3655.104263164572</v>
       </c>
       <c r="E14">
-        <v>264.24951902354218</v>
+        <v>264.2495190235422</v>
       </c>
       <c r="G14">
         <v>3919.353782188115</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15">
       <c r="A15">
         <v>6484.522265208916</v>
       </c>
       <c r="B15">
-        <v>5936.4073576994588</v>
-      </c>
-      <c r="C15" t="s">
-        <v>20</v>
+        <v>5936.407357699459</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
       </c>
       <c r="D15">
-        <v>3753.8092042113062</v>
+        <v>3753.809204211306</v>
       </c>
       <c r="E15">
-        <v>284.52614998597051</v>
+        <v>284.5261499859705</v>
       </c>
       <c r="G15">
         <v>4038.335354197277</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16">
       <c r="A16">
-        <v>6789.3471143715014</v>
+        <v>6789.347114371501</v>
       </c>
       <c r="B16">
-        <v>6186.6813048447921</v>
-      </c>
-      <c r="C16" t="s">
-        <v>21</v>
+        <v>6186.681304844792</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
       </c>
       <c r="D16">
         <v>3909.454377486677</v>
       </c>
       <c r="E16">
-        <v>288.59297448033652</v>
+        <v>288.5929744803365</v>
       </c>
       <c r="G16">
-        <v>4198.0473519670131</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+        <v>4198.047351967013</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17">
-        <v>6814.7271874772614</v>
+        <v>6814.727187477261</v>
       </c>
       <c r="B17">
-        <v>6273.6180864591033</v>
-      </c>
-      <c r="C17" t="s">
-        <v>22</v>
+        <v>6273.618086459103</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="D17">
-        <v>4095.7109837144899</v>
+        <v>4095.71098371449</v>
       </c>
       <c r="E17">
-        <v>288.59347840094722</v>
+        <v>288.5934784009472</v>
       </c>
       <c r="G17">
-        <v>4384.3044621154377</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+        <v>4384.304462115438</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18">
-        <v>6820.9189999999999</v>
+        <v>6820.919</v>
       </c>
       <c r="B18">
         <v>6410.982</v>
       </c>
-      <c r="C18" t="s">
-        <v>23</v>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
       </c>
       <c r="D18">
-        <v>4271.4639999999999</v>
+        <v>4271.464</v>
       </c>
       <c r="E18">
-        <v>285.29500000000002</v>
+        <v>285.295</v>
       </c>
       <c r="G18">
         <v>4556.759</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19">
       <c r="A19">
         <v>7078.07</v>
       </c>
       <c r="B19">
         <v>6567.241</v>
       </c>
-      <c r="C19" t="s">
-        <v>24</v>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
       </c>
       <c r="D19">
-        <v>4461.7439999999997</v>
+        <v>4461.744</v>
       </c>
       <c r="E19">
-        <v>275.24900000000002</v>
+        <v>275.249</v>
       </c>
       <c r="G19">
-        <v>4736.9930000000004</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+        <v>4736.993</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20">
-        <v>7285.0879999999997</v>
+        <v>7285.088</v>
       </c>
       <c r="B20">
-        <v>6740.4080000000004</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
+        <v>6740.408</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
       </c>
       <c r="D20">
         <v>4632.24</v>
       </c>
       <c r="E20">
-        <v>271.69099999999997</v>
+        <v>271.691</v>
       </c>
       <c r="G20">
-        <v>4903.9309999999996</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+        <v>4903.931</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21">
-        <v>7343.7780000000002</v>
+        <v>7343.778</v>
       </c>
       <c r="B21">
         <v>6710.99</v>
       </c>
-      <c r="C21" t="s">
-        <v>26</v>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
       </c>
       <c r="D21">
-        <v>4530.2640000000001</v>
+        <v>4530.264</v>
       </c>
       <c r="E21">
-        <v>275.57299999999998</v>
+        <v>275.573</v>
       </c>
       <c r="G21">
-        <v>4805.8370000000004</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+        <v>4805.837</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22">
-        <v>8160.7158851421691</v>
+        <v>8160.715885142169</v>
       </c>
       <c r="B22">
-        <v>7572.3177515504012</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
+        <v>7572.317751550401</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="D22">
         <v>5294.65773103016</v>
       </c>
       <c r="E22">
-        <v>342.19623893886302</v>
+        <v>342.196238938863</v>
       </c>
       <c r="F22">
-        <v>4524.1406406573142</v>
+        <v>4524.140640657314</v>
       </c>
       <c r="G22">
-        <v>5636.8539699690227</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+        <v>5636.853969969023</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23">
         <v>8356.354870340132</v>
       </c>
       <c r="B23">
         <v>7786.90190352638</v>
       </c>
-      <c r="C23" t="s">
-        <v>28</v>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
       </c>
       <c r="D23">
         <v>5545.8441958443</v>
       </c>
       <c r="E23">
-        <v>376.21320158206902</v>
+        <v>376.213201582069</v>
       </c>
       <c r="F23">
-        <v>4706.0645492922731</v>
+        <v>4706.064549292273</v>
       </c>
       <c r="G23">
-        <v>5922.0573974263689</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+        <v>5922.057397426369</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24">
-        <v>8480.1150520819283</v>
+        <v>8480.115052081928</v>
       </c>
       <c r="B24">
-        <v>7952.2570881446482</v>
-      </c>
-      <c r="C24" t="s">
-        <v>29</v>
+        <v>7952.257088144648</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
       </c>
       <c r="D24">
-        <v>5717.7755947199603</v>
+        <v>5717.77559471996</v>
       </c>
       <c r="E24">
-        <v>342.21782664679301</v>
+        <v>342.217826646793</v>
       </c>
       <c r="F24">
-        <v>4867.0351744855707</v>
+        <v>4867.035174485571</v>
       </c>
       <c r="G24">
         <v>6059.993421366753</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25">
       <c r="A25">
-        <v>8649.4787333472614</v>
+        <v>8649.478733347261</v>
       </c>
       <c r="B25">
-        <v>8149.3890562756787</v>
-      </c>
-      <c r="C25" t="s">
-        <v>30</v>
+        <v>8149.389056275679</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
       </c>
       <c r="D25">
         <v>5838.96775441926</v>
       </c>
       <c r="E25">
-        <v>325.59921709871998</v>
+        <v>325.59921709872</v>
       </c>
       <c r="F25">
-        <v>4945.0150683383426</v>
+        <v>4945.015068338343</v>
       </c>
       <c r="G25">
-        <v>6164.5669715179802</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+        <v>6164.56697151798</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26">
-        <v>8795.4292791672215</v>
+        <v>8795.429279167222</v>
       </c>
       <c r="B26">
-        <v>8249.6203995933192</v>
-      </c>
-      <c r="C26" t="s">
-        <v>31</v>
+        <v>8249.620399593319</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
       </c>
       <c r="D26">
-        <v>5901.3698305670096</v>
+        <v>5901.36983056701</v>
       </c>
       <c r="E26">
-        <v>321.33072325777101</v>
+        <v>321.330723257771</v>
       </c>
       <c r="F26">
-        <v>4961.6186203452444</v>
+        <v>4961.618620345244</v>
       </c>
       <c r="G26">
-        <v>6222.7005538247804</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+        <v>6222.70055382478</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27">
-        <v>8954.1138764514872</v>
+        <v>8954.113876451487</v>
       </c>
       <c r="B27">
-        <v>8428.4698548728556</v>
-      </c>
-      <c r="C27" t="s">
-        <v>32</v>
+        <v>8428.469854872856</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
       </c>
       <c r="D27">
-        <v>6010.6853789903498</v>
+        <v>6010.68537899035</v>
       </c>
       <c r="E27">
-        <v>329.56138524101499</v>
+        <v>329.561385241015</v>
       </c>
       <c r="F27">
-        <v>5088.7712463445469</v>
+        <v>5088.771246344547</v>
       </c>
       <c r="G27">
         <v>6340.246764231365</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28">
       <c r="A28">
-        <v>9062.6307242528474</v>
+        <v>9062.630724252847</v>
       </c>
       <c r="B28">
-        <v>8500.7102151495037</v>
-      </c>
-      <c r="C28" t="s">
-        <v>33</v>
+        <v>8500.710215149504</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
       </c>
       <c r="D28">
-        <v>5979.1349744839799</v>
+        <v>5979.13497448398</v>
       </c>
       <c r="E28">
-        <v>341.06418032462398</v>
+        <v>341.064180324624</v>
       </c>
       <c r="F28">
-        <v>5064.9296965251333</v>
+        <v>5064.929696525133</v>
       </c>
       <c r="G28">
-        <v>6320.1991548086044</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+        <v>6320.199154808604</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29">
-        <v>9379.5226392475852</v>
+        <v>9379.522639247585</v>
       </c>
       <c r="B29">
-        <v>8768.6668567166944</v>
-      </c>
-      <c r="C29" t="s">
-        <v>34</v>
+        <v>8768.666856716694</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="D29">
-        <v>6148.1792774591804</v>
+        <v>6148.17927745918</v>
       </c>
       <c r="E29">
-        <v>329.73967347990299</v>
+        <v>329.739673479903</v>
       </c>
       <c r="F29">
-        <v>5124.1930973177068</v>
+        <v>5124.193097317707</v>
       </c>
       <c r="G29">
-        <v>6477.9189509390844</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+        <v>6477.918950939084</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30">
-        <v>9600.3327160301596</v>
+        <v>9600.33271603016</v>
       </c>
       <c r="B30">
-        <v>8914.2484603237936</v>
-      </c>
-      <c r="C30" t="s">
-        <v>35</v>
+        <v>8914.248460323794</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
       </c>
       <c r="D30">
-        <v>6280.8922395355303</v>
+        <v>6280.89223953553</v>
       </c>
       <c r="E30">
-        <v>321.34670650229498</v>
+        <v>321.346706502295</v>
       </c>
       <c r="F30">
-        <v>5217.3641101956491</v>
+        <v>5217.364110195649</v>
       </c>
       <c r="G30">
-        <v>6602.2389460378254</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+        <v>6602.238946037825</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31">
-        <v>9777.7515058871722</v>
+        <v>9777.751505887172</v>
       </c>
       <c r="B31">
-        <v>9087.1323840463938</v>
-      </c>
-      <c r="C31" t="s">
-        <v>36</v>
+        <v>9087.132384046394</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="D31">
         <v>6451.45796048588</v>
       </c>
       <c r="E31">
-        <v>310.93786773505798</v>
+        <v>310.937867735058</v>
       </c>
       <c r="F31">
-        <v>5334.8089408991264</v>
+        <v>5334.808940899126</v>
       </c>
       <c r="G31">
-        <v>6762.3958282209378</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+        <v>6762.395828220938</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32">
-        <v>8946.4800561463289</v>
+        <v>8946.480056146329</v>
       </c>
       <c r="B32">
-        <v>8026.2166007514534</v>
-      </c>
-      <c r="C32" t="s">
-        <v>37</v>
+        <v>8026.216600751453</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="D32">
-        <v>5927.2762600400101</v>
+        <v>5927.27626004001</v>
       </c>
       <c r="E32">
-        <v>194.91443161922899</v>
+        <v>194.914431619229</v>
       </c>
       <c r="F32">
-        <v>4792.0708725057211</v>
+        <v>4792.070872505721</v>
       </c>
       <c r="G32">
-        <v>6122.1906916592388</v>
+        <v>6122.190691659239</v>
       </c>
     </row>
   </sheetData>
